--- a/data/pca/factorExposure/factorExposure_2013-04-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001243385975127405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001913983356990584</v>
+      </c>
+      <c r="C2">
+        <v>-0.03314102149728459</v>
+      </c>
+      <c r="D2">
+        <v>0.00136915922399317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.00204195930390026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005947105001654932</v>
+      </c>
+      <c r="C4">
+        <v>-0.0872133296299781</v>
+      </c>
+      <c r="D4">
+        <v>0.07544651084014962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000952093510284614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01334735551316314</v>
+      </c>
+      <c r="C6">
+        <v>-0.1122548101827362</v>
+      </c>
+      <c r="D6">
+        <v>0.03029177019728175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002134184429434687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004659921859076046</v>
+      </c>
+      <c r="C7">
+        <v>-0.05671388030775707</v>
+      </c>
+      <c r="D7">
+        <v>0.03032032879061105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003000954858164286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005589445124497203</v>
+      </c>
+      <c r="C8">
+        <v>-0.0382398483189914</v>
+      </c>
+      <c r="D8">
+        <v>0.03994482629585034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004092841153276077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004070763296190096</v>
+      </c>
+      <c r="C9">
+        <v>-0.0726367175496257</v>
+      </c>
+      <c r="D9">
+        <v>0.06967593689449182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004249129932647898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005160242219149036</v>
+      </c>
+      <c r="C10">
+        <v>-0.06028164453383165</v>
+      </c>
+      <c r="D10">
+        <v>-0.2039191425861989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003324613524762781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005230767571175907</v>
+      </c>
+      <c r="C11">
+        <v>-0.0812608038912408</v>
+      </c>
+      <c r="D11">
+        <v>0.05973051861783478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-5.082245147290644e-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003845544398351934</v>
+      </c>
+      <c r="C12">
+        <v>-0.06470825802272094</v>
+      </c>
+      <c r="D12">
+        <v>0.04548236288142013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003373007761547645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008443207427108553</v>
+      </c>
+      <c r="C13">
+        <v>-0.06751397533908969</v>
+      </c>
+      <c r="D13">
+        <v>0.06392604685164774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001496669268709376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001386135520465693</v>
+      </c>
+      <c r="C14">
+        <v>-0.04666721025165296</v>
+      </c>
+      <c r="D14">
+        <v>0.008718545784022324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001221887636952724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005913163243690981</v>
+      </c>
+      <c r="C15">
+        <v>-0.0427919205631541</v>
+      </c>
+      <c r="D15">
+        <v>0.03077875224249211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001488821908954648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004846219158204068</v>
+      </c>
+      <c r="C16">
+        <v>-0.06681550717491265</v>
+      </c>
+      <c r="D16">
+        <v>0.04492159852504933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.00024804646997729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008725647879208905</v>
+      </c>
+      <c r="C20">
+        <v>-0.06833574760941524</v>
+      </c>
+      <c r="D20">
+        <v>0.04752038962988338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005290361728664153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009786283226435027</v>
+      </c>
+      <c r="C21">
+        <v>-0.02337732475292284</v>
+      </c>
+      <c r="D21">
+        <v>0.03531627232415833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01705713118797991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007104026917367829</v>
+      </c>
+      <c r="C22">
+        <v>-0.09488602362052667</v>
+      </c>
+      <c r="D22">
+        <v>0.1012667537091669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01738026319539772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006918540972007443</v>
+      </c>
+      <c r="C23">
+        <v>-0.09576074862042758</v>
+      </c>
+      <c r="D23">
+        <v>0.1015910640234415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002020690405150335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004880823953613098</v>
+      </c>
+      <c r="C24">
+        <v>-0.07556201747421677</v>
+      </c>
+      <c r="D24">
+        <v>0.05800984876066304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003999450427560998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002639080310483409</v>
+      </c>
+      <c r="C25">
+        <v>-0.07900202837481285</v>
+      </c>
+      <c r="D25">
+        <v>0.06329017197035441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006366516534468579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003513521650616344</v>
+      </c>
+      <c r="C26">
+        <v>-0.04303000318569913</v>
+      </c>
+      <c r="D26">
+        <v>0.02588835386430781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005224106740229557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.00115565945493173</v>
+      </c>
+      <c r="C28">
+        <v>-0.1091073131142012</v>
+      </c>
+      <c r="D28">
+        <v>-0.3184661657082199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001320493169663086</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002943203290240412</v>
+      </c>
+      <c r="C29">
+        <v>-0.0496611058916105</v>
+      </c>
+      <c r="D29">
+        <v>0.003827192606292029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003869560620791599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008668162963061605</v>
+      </c>
+      <c r="C30">
+        <v>-0.1447235392315666</v>
+      </c>
+      <c r="D30">
+        <v>0.09847722728236712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-2.852852599096839e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006030950035562335</v>
+      </c>
+      <c r="C31">
+        <v>-0.04576828425328953</v>
+      </c>
+      <c r="D31">
+        <v>0.03179399159334612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005050217863380719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003778414696024301</v>
+      </c>
+      <c r="C32">
+        <v>-0.04041354425417282</v>
+      </c>
+      <c r="D32">
+        <v>0.02233771187197568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003341449068452813</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007795733120223058</v>
+      </c>
+      <c r="C33">
+        <v>-0.08665975423396888</v>
+      </c>
+      <c r="D33">
+        <v>0.07174149383548814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004575815841098095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003644279117394617</v>
+      </c>
+      <c r="C34">
+        <v>-0.0583254349571257</v>
+      </c>
+      <c r="D34">
+        <v>0.04686578127029446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002692504744980461</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004666460478086632</v>
+      </c>
+      <c r="C35">
+        <v>-0.03989814950166048</v>
+      </c>
+      <c r="D35">
+        <v>0.01339498134530495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004130106119572391</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001383442744864488</v>
+      </c>
+      <c r="C36">
+        <v>-0.0257061040332408</v>
+      </c>
+      <c r="D36">
+        <v>0.02056501331108502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001936860474475884</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009436678068471241</v>
+      </c>
+      <c r="C38">
+        <v>-0.03485760084755596</v>
+      </c>
+      <c r="D38">
+        <v>0.02043714000450887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0133637626107128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001138363929232868</v>
+      </c>
+      <c r="C39">
+        <v>-0.118534611920617</v>
+      </c>
+      <c r="D39">
+        <v>0.07352826807163934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009765878675385725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001933065950917508</v>
+      </c>
+      <c r="C40">
+        <v>-0.08898733259722365</v>
+      </c>
+      <c r="D40">
+        <v>0.009709313145399375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003959184903186789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007103200383852544</v>
+      </c>
+      <c r="C41">
+        <v>-0.03786042916993709</v>
+      </c>
+      <c r="D41">
+        <v>0.03591787915776178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003362902187582872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003408485377718258</v>
+      </c>
+      <c r="C43">
+        <v>-0.05122706278098044</v>
+      </c>
+      <c r="D43">
+        <v>0.02481353111642843</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002957997399386027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003283651695087181</v>
+      </c>
+      <c r="C44">
+        <v>-0.1150118022902498</v>
+      </c>
+      <c r="D44">
+        <v>0.07004352149290444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001760564224997247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002252671847900544</v>
+      </c>
+      <c r="C46">
+        <v>-0.03617706536027683</v>
+      </c>
+      <c r="D46">
+        <v>0.02697913258452879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0007717555933172304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002645131061215149</v>
+      </c>
+      <c r="C47">
+        <v>-0.03799000109290626</v>
+      </c>
+      <c r="D47">
+        <v>0.02472349819630097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00318246964551183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006312863686428186</v>
+      </c>
+      <c r="C48">
+        <v>-0.0297921468429658</v>
+      </c>
+      <c r="D48">
+        <v>0.03166973150717509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01445591834087514</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01438348935885878</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828512651141858</v>
+      </c>
+      <c r="D49">
+        <v>0.01171336565128368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001424071950991282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003455679252302187</v>
+      </c>
+      <c r="C50">
+        <v>-0.04473357286118997</v>
+      </c>
+      <c r="D50">
+        <v>0.03441550708190082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.000562243288261044</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004223272381561624</v>
+      </c>
+      <c r="C51">
+        <v>-0.02505550495339558</v>
+      </c>
+      <c r="D51">
+        <v>0.02206827842440767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003758836237147982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01988617207961444</v>
+      </c>
+      <c r="C53">
+        <v>-0.1686358284566645</v>
+      </c>
+      <c r="D53">
+        <v>0.03814947186309393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0007018534353446602</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00858060146798738</v>
+      </c>
+      <c r="C54">
+        <v>-0.05696290631455726</v>
+      </c>
+      <c r="D54">
+        <v>0.04134034039738983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004093123267016675</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009055177923956407</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094134029361254</v>
+      </c>
+      <c r="D55">
+        <v>0.04502208120514581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002974074948557991</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01939457274560742</v>
+      </c>
+      <c r="C56">
+        <v>-0.1755414934792763</v>
+      </c>
+      <c r="D56">
+        <v>0.03926451940133782</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007429713732163978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01914478974629012</v>
+      </c>
+      <c r="C58">
+        <v>-0.1087430142039648</v>
+      </c>
+      <c r="D58">
+        <v>0.05301138694145983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006937317713927028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008653543828962851</v>
+      </c>
+      <c r="C59">
+        <v>-0.1575359756335407</v>
+      </c>
+      <c r="D59">
+        <v>-0.302902181032383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004699435503746586</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02289818282098652</v>
+      </c>
+      <c r="C60">
+        <v>-0.222941408717432</v>
+      </c>
+      <c r="D60">
+        <v>0.02271251970436915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01488451341201604</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002173413392482</v>
+      </c>
+      <c r="C61">
+        <v>-0.09650572059645819</v>
+      </c>
+      <c r="D61">
+        <v>0.05681704654233034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1699671760940842</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.143833145741693</v>
+      </c>
+      <c r="C62">
+        <v>-0.08754312732387183</v>
+      </c>
+      <c r="D62">
+        <v>0.04597197023646366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001229058040070936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006168378236317693</v>
+      </c>
+      <c r="C63">
+        <v>-0.05799519882178245</v>
+      </c>
+      <c r="D63">
+        <v>0.02582333569490704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0053876579041184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01469636660951293</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056081450611718</v>
+      </c>
+      <c r="D64">
+        <v>0.05909488079416637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001814957731098387</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01698677448606984</v>
+      </c>
+      <c r="C65">
+        <v>-0.1196532567530568</v>
+      </c>
+      <c r="D65">
+        <v>0.01533226897345748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008630001823428157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01212219923863055</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606709738022317</v>
+      </c>
+      <c r="D66">
+        <v>0.1121521253437732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003351997959336828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01546099718052353</v>
+      </c>
+      <c r="C67">
+        <v>-0.06541437258348869</v>
+      </c>
+      <c r="D67">
+        <v>0.02939041281170215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006725355344632116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004477809636149146</v>
+      </c>
+      <c r="C68">
+        <v>-0.08849850873518243</v>
+      </c>
+      <c r="D68">
+        <v>-0.2509846984478177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002893078116818312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005725832110747144</v>
+      </c>
+      <c r="C69">
+        <v>-0.05045362172078818</v>
+      </c>
+      <c r="D69">
+        <v>0.03901368119994616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0001392015439985374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00178998194935991</v>
+      </c>
+      <c r="C70">
+        <v>-0.002503786017313249</v>
+      </c>
+      <c r="D70">
+        <v>0.0004654748454188742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001319713179935366</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005699202666392304</v>
+      </c>
+      <c r="C71">
+        <v>-0.09832327683701027</v>
+      </c>
+      <c r="D71">
+        <v>-0.296437522807441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005489008376906798</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01515384785108255</v>
+      </c>
+      <c r="C72">
+        <v>-0.1499263311555795</v>
+      </c>
+      <c r="D72">
+        <v>0.02137249088694455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01201377960671905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02871137502405536</v>
+      </c>
+      <c r="C73">
+        <v>-0.2752698531134369</v>
+      </c>
+      <c r="D73">
+        <v>0.0503594838022111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005206472873267209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00105242113270388</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044168689873444</v>
+      </c>
+      <c r="D74">
+        <v>0.03983712787781844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003606097912710608</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01047040553797305</v>
+      </c>
+      <c r="C75">
+        <v>-0.1314943432496905</v>
+      </c>
+      <c r="D75">
+        <v>0.02436583139521952</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009169690821755342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02088088756647621</v>
+      </c>
+      <c r="C76">
+        <v>-0.150259806405824</v>
+      </c>
+      <c r="D76">
+        <v>0.06447622256655951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0003909022301391969</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02387971491105192</v>
+      </c>
+      <c r="C77">
+        <v>-0.1340723993801775</v>
+      </c>
+      <c r="D77">
+        <v>0.05752172437748186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001416521582470889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01409647351574175</v>
+      </c>
+      <c r="C78">
+        <v>-0.09482865862409072</v>
+      </c>
+      <c r="D78">
+        <v>0.06801081974960792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02452472653216575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03669780401103336</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574541974617088</v>
+      </c>
+      <c r="D79">
+        <v>0.03175544448344202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004673379989630461</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01038059200172081</v>
+      </c>
+      <c r="C80">
+        <v>-0.04257891835599669</v>
+      </c>
+      <c r="D80">
+        <v>0.03031222299253115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0005932961666862802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0144643922034567</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288656247802384</v>
+      </c>
+      <c r="D81">
+        <v>0.04391024263663673</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005505737261479177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01915834823853733</v>
+      </c>
+      <c r="C82">
+        <v>-0.1442342143075607</v>
+      </c>
+      <c r="D82">
+        <v>0.04085375065704971</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008610320053937241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009925910655712002</v>
+      </c>
+      <c r="C83">
+        <v>-0.05782380966024937</v>
+      </c>
+      <c r="D83">
+        <v>0.05337831634276144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01250702711460611</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01147430587506032</v>
+      </c>
+      <c r="C84">
+        <v>-0.03658656052371576</v>
+      </c>
+      <c r="D84">
+        <v>-0.007584792240566931</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0153380103902053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02760987276444723</v>
+      </c>
+      <c r="C85">
+        <v>-0.1313331244172455</v>
+      </c>
+      <c r="D85">
+        <v>0.04380450764243903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001373091410966382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005307549637528847</v>
+      </c>
+      <c r="C86">
+        <v>-0.04951982300831656</v>
+      </c>
+      <c r="D86">
+        <v>0.02085074916138177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005925125212506847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01007621030404503</v>
+      </c>
+      <c r="C87">
+        <v>-0.1323982664658236</v>
+      </c>
+      <c r="D87">
+        <v>0.06602592531811968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01323635934120392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00313046873443761</v>
+      </c>
+      <c r="C88">
+        <v>-0.06759752521799137</v>
+      </c>
+      <c r="D88">
+        <v>0.01162610083231149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01550663579333858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002091736545640932</v>
+      </c>
+      <c r="C89">
+        <v>-0.1457004606893234</v>
+      </c>
+      <c r="D89">
+        <v>-0.3519585012165009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002916166622916765</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006532391992725991</v>
+      </c>
+      <c r="C90">
+        <v>-0.1222515847680262</v>
+      </c>
+      <c r="D90">
+        <v>-0.3229101381346686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006141771424895291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009927607293855683</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033667382343982</v>
+      </c>
+      <c r="D91">
+        <v>0.02147627032743579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008984537943058375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-8.705250731496267e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1352225865438285</v>
+      </c>
+      <c r="D92">
+        <v>-0.3379409712845485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0007694243649023142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004457005066198093</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055638906705262</v>
+      </c>
+      <c r="D93">
+        <v>-0.3163983173948089</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003454115129437058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0219377450276335</v>
+      </c>
+      <c r="C94">
+        <v>-0.153439941758519</v>
+      </c>
+      <c r="D94">
+        <v>0.04632598872011811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004863901335679666</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01579234311964644</v>
+      </c>
+      <c r="C95">
+        <v>-0.1269155125856247</v>
+      </c>
+      <c r="D95">
+        <v>0.06090065765665922</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002368772350422284</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03359245025561645</v>
+      </c>
+      <c r="C97">
+        <v>-0.1892738533134987</v>
+      </c>
+      <c r="D97">
+        <v>0.007677492040437853</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00428647675305089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03565369685844937</v>
+      </c>
+      <c r="C98">
+        <v>-0.249181280579668</v>
+      </c>
+      <c r="D98">
+        <v>0.05044720342282433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9834429650263724</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828989763514493</v>
+      </c>
+      <c r="C99">
+        <v>0.1101322039558525</v>
+      </c>
+      <c r="D99">
+        <v>-0.02760649564859938</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001276195867285674</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.0029873579393866</v>
+      </c>
+      <c r="C101">
+        <v>-0.04969198666140845</v>
+      </c>
+      <c r="D101">
+        <v>0.004276770518878328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
